--- a/currentbuild/CodeSystem-vkp-performer-organization-identifiers.codesystem.xlsx
+++ b/currentbuild/CodeSystem-vkp-performer-organization-identifiers.codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/CodeSystem-vkp-performer-organization-identifiers.codesystem.xlsx
+++ b/currentbuild/CodeSystem-vkp-performer-organization-identifiers.codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/CodeSystem-vkp-performer-organization-identifiers.codesystem.xlsx
+++ b/currentbuild/CodeSystem-vkp-performer-organization-identifiers.codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/CodeSystem-vkp-performer-organization-identifiers.codesystem.xlsx
+++ b/currentbuild/CodeSystem-vkp-performer-organization-identifiers.codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/CodeSystem-vkp-performer-organization-identifiers.codesystem.xlsx
+++ b/currentbuild/CodeSystem-vkp-performer-organization-identifiers.codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.8</t>
+    <t>0.3.9</t>
   </si>
   <si>
     <t>Name</t>
